--- a/resources/data-imports/Monsters/twisted-memories-monsters.xlsx
+++ b/resources/data-imports/Monsters/twisted-memories-monsters.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="172">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -439,103 +439,103 @@
     <t xml:space="preserve">1981488061-2813550351</t>
   </si>
   <si>
+    <t xml:space="preserve">The Fractured Remnant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2070418830-2916498439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Echo of Shattered Hope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2163340883-3023213409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Forgotten Apparition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2260433353-3133833090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whispering Phantom of Sorrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2361883410-3248500356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mourning Shade of the Past</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2467886627-3367363309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Eternal Betrayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2578647353-3490575469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hollow Reflection of Regret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2694379110-3618295975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Splintered Wraith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2815304999-3750689786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haunting Echo of the Damned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2941658140-3887927901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ruined Visionary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3073682111-4030187571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phantom of Lost Promises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3211631423-4177652538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fading Revenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3355772010-4330513262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broken Illusion of Despair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3506381743-4488967175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Weeping Specter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3663750961-4653218933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisted Echo of Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3828183035-4823480679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamenting Guardian of the Rift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000000000-5000000000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finger bones of the mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Fractured Remnant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2070418830-2916498439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echo of Shattered Hope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2163340883-3023213409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Forgotten Apparition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2260433353-3133833090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whispering Phantom of Sorrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2361883410-3248500356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mourning Shade of the Past</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2467886627-3367363309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Eternal Betrayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2578647353-3490575469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hollow Reflection of Regret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2694379110-3618295975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Splintered Wraith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2815304999-3750689786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haunting Echo of the Damned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2941658140-3887927901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Ruined Visionary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3073682111-4030187571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phantom of Lost Promises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3211631423-4177652538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Fading Revenant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3355772010-4330513262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broken Illusion of Despair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3506381743-4488967175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Weeping Specter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3663750961-4653218933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisted Echo of Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3828183035-4823480679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamenting Guardian of the Rift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000000000-5000000000</t>
   </si>
 </sst>
 </file>
@@ -749,8 +749,8 @@
   </sheetPr>
   <dimension ref="A1:AX60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AL1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AZ17" activeCellId="0" sqref="AZ17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM44" activeCellId="0" sqref="AM44:AN59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6230,12 +6230,6 @@
       <c r="AL44" s="1" t="n">
         <v>0.609958101258663</v>
       </c>
-      <c r="AM44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN44" s="1" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AO44" s="1" t="s">
         <v>52</v>
       </c>
@@ -6257,7 +6251,7 @@
         <v>474</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4537646442.18435</v>
@@ -6323,10 +6317,10 @@
         <v>0</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA45" s="1" t="n">
         <v>5500000000</v>
@@ -6363,12 +6357,6 @@
       </c>
       <c r="AL45" s="1" t="n">
         <v>0.617888410516368</v>
-      </c>
-      <c r="AM45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN45" s="1" t="n">
-        <v>0.1</v>
       </c>
       <c r="AO45" s="1" t="s">
         <v>52</v>
@@ -6391,7 +6379,7 @@
         <v>475</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4622926969.41877</v>
@@ -6457,10 +6445,10 @@
         <v>0</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA46" s="1" t="n">
         <v>5500000000</v>
@@ -6497,12 +6485,6 @@
       </c>
       <c r="AL46" s="1" t="n">
         <v>0.625921824896855</v>
-      </c>
-      <c r="AM46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN46" s="1" t="n">
-        <v>0.1</v>
       </c>
       <c r="AO46" s="1" t="s">
         <v>52</v>
@@ -6525,7 +6507,7 @@
         <v>476</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4709810258.88202</v>
@@ -6591,10 +6573,10 @@
         <v>0</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA47" s="1" t="n">
         <v>5500000000</v>
@@ -6631,12 +6613,6 @@
       </c>
       <c r="AL47" s="1" t="n">
         <v>0.634059684911069</v>
-      </c>
-      <c r="AM47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN47" s="1" t="n">
-        <v>0.1</v>
       </c>
       <c r="AO47" s="1" t="s">
         <v>52</v>
@@ -6659,7 +6635,7 @@
         <v>477</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4798326432.88745</v>
@@ -6725,10 +6701,10 @@
         <v>0</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA48" s="1" t="n">
         <v>5500000000</v>
@@ -6765,12 +6741,6 @@
       </c>
       <c r="AL48" s="1" t="n">
         <v>0.642303348498472</v>
-      </c>
-      <c r="AM48" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN48" s="1" t="n">
-        <v>0.1</v>
       </c>
       <c r="AO48" s="1" t="s">
         <v>52</v>
@@ -6793,7 +6763,7 @@
         <v>478</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4888506179.86714</v>
@@ -6859,10 +6829,10 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA49" s="1" t="n">
         <v>5500000000</v>
@@ -6899,12 +6869,6 @@
       </c>
       <c r="AL49" s="1" t="n">
         <v>0.65065419125364</v>
-      </c>
-      <c r="AM49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN49" s="1" t="n">
-        <v>0.1</v>
       </c>
       <c r="AO49" s="1" t="s">
         <v>52</v>
@@ -6927,7 +6891,7 @@
         <v>479</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4980380765.01156</v>
@@ -6993,10 +6957,10 @@
         <v>0</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA50" s="1" t="n">
         <v>5500000000</v>
@@ -7033,12 +6997,6 @@
       </c>
       <c r="AL50" s="1" t="n">
         <v>0.659113606655805</v>
-      </c>
-      <c r="AM50" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN50" s="1" t="n">
-        <v>0.1</v>
       </c>
       <c r="AO50" s="1" t="s">
         <v>52</v>
@@ -7061,7 +7019,7 @@
         <v>480</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>5073982041.10919</v>
@@ -7127,10 +7085,10 @@
         <v>0</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA51" s="1" t="n">
         <v>5500000000</v>
@@ -7167,12 +7125,6 @@
       </c>
       <c r="AL51" s="1" t="n">
         <v>0.66768300630138</v>
-      </c>
-      <c r="AM51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN51" s="1" t="n">
-        <v>0.1</v>
       </c>
       <c r="AO51" s="1" t="s">
         <v>52</v>
@@ -7195,7 +7147,7 @@
         <v>481</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>5169342459.58979</v>
@@ -7261,10 +7213,10 @@
         <v>0</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA52" s="1" t="n">
         <v>5500000000</v>
@@ -7301,12 +7253,6 @@
       </c>
       <c r="AL52" s="1" t="n">
         <v>0.676363820139507</v>
-      </c>
-      <c r="AM52" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN52" s="1" t="n">
-        <v>0.1</v>
       </c>
       <c r="AO52" s="1" t="s">
         <v>52</v>
@@ -7329,7 +7275,7 @@
         <v>482</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>5266495081.77532</v>
@@ -7395,10 +7341,10 @@
         <v>0</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AA53" s="1" t="n">
         <v>5500000000</v>
@@ -7435,12 +7381,6 @@
       </c>
       <c r="AL53" s="1" t="n">
         <v>0.685157496710669</v>
-      </c>
-      <c r="AM53" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN53" s="1" t="n">
-        <v>0.1</v>
       </c>
       <c r="AO53" s="1" t="s">
         <v>52</v>
@@ -7463,7 +7403,7 @@
         <v>483</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>5365473590.34221</v>
@@ -7529,10 +7469,10 @@
         <v>0</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA54" s="1" t="n">
         <v>5500000000</v>
@@ -7569,12 +7509,6 @@
       </c>
       <c r="AL54" s="1" t="n">
         <v>0.694065503388403</v>
-      </c>
-      <c r="AM54" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN54" s="1" t="n">
-        <v>0.1</v>
       </c>
       <c r="AO54" s="1" t="s">
         <v>52</v>
@@ -7597,7 +7531,7 @@
         <v>484</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>5466312300.9991</v>
@@ -7663,10 +7597,10 @@
         <v>0</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA55" s="1" t="n">
         <v>5500000000</v>
@@ -7703,12 +7637,6 @@
       </c>
       <c r="AL55" s="1" t="n">
         <v>0.703089326624157</v>
-      </c>
-      <c r="AM55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN55" s="1" t="n">
-        <v>0.1</v>
       </c>
       <c r="AO55" s="1" t="s">
         <v>52</v>
@@ -7731,7 +7659,7 @@
         <v>485</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>5569046174.38408</v>
@@ -7797,10 +7725,10 @@
         <v>0</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA56" s="1" t="n">
         <v>5500000000</v>
@@ -7837,12 +7765,6 @@
       </c>
       <c r="AL56" s="1" t="n">
         <v>0.712230472195328</v>
-      </c>
-      <c r="AM56" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN56" s="1" t="n">
-        <v>0.1</v>
       </c>
       <c r="AO56" s="1" t="s">
         <v>52</v>
@@ -7865,7 +7787,7 @@
         <v>486</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>5673710828.18545</v>
@@ -7931,10 +7853,10 @@
         <v>0</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA57" s="1" t="n">
         <v>5500000000</v>
@@ -7971,12 +7893,6 @@
       </c>
       <c r="AL57" s="1" t="n">
         <v>0.721490465456529</v>
-      </c>
-      <c r="AM57" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN57" s="1" t="n">
-        <v>0.1</v>
       </c>
       <c r="AO57" s="1" t="s">
         <v>52</v>
@@ -7999,7 +7915,7 @@
         <v>487</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>5780342549.49037</v>
@@ -8065,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA58" s="1" t="n">
         <v>5500000000</v>
@@ -8105,12 +8021,6 @@
       </c>
       <c r="AL58" s="1" t="n">
         <v>0.730870851594115</v>
-      </c>
-      <c r="AM58" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN58" s="1" t="n">
-        <v>0.1</v>
       </c>
       <c r="AO58" s="1" t="s">
         <v>52</v>
@@ -8133,7 +8043,7 @@
         <v>488</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>5888978307.36549</v>
@@ -8199,10 +8109,10 @@
         <v>0</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA59" s="1" t="n">
         <v>5500000000</v>
@@ -8239,12 +8149,6 @@
       </c>
       <c r="AL59" s="1" t="n">
         <v>0.740373195884031</v>
-      </c>
-      <c r="AM59" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN59" s="1" t="n">
-        <v>0.1</v>
       </c>
       <c r="AO59" s="1" t="s">
         <v>52</v>
@@ -8267,7 +8171,7 @@
         <v>489</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>6000000000</v>
@@ -8333,10 +8237,10 @@
         <v>0</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA60" s="1" t="n">
         <v>5500000000</v>
@@ -8375,7 +8279,7 @@
         <v>0.75</v>
       </c>
       <c r="AM60" s="1" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="AN60" s="1" t="n">
         <v>0.1</v>
